--- a/SpellVenture/Spell_VentureGDD.xlsx
+++ b/SpellVenture/Spell_VentureGDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fede\Desktop\Cosas Fede\Escuela Da Vinci\ExtraCurriculares\Games\SpellVenture\Spell_Venture\SpellVenture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A991EF-E100-48CD-BDD6-31386C84581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F21B7-42D7-45C6-A3D4-36DA2A9B5640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CBE91CD-C645-4208-9F7B-9CCFBD2475AE}"/>
   </bookViews>
@@ -22,6 +22,68 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Spell Venture </t>
+  </si>
+  <si>
+    <t>Genero:</t>
+  </si>
+  <si>
+    <t>Metroidvania</t>
+  </si>
+  <si>
+    <t>Tema:</t>
+  </si>
+  <si>
+    <t>Magia y Hechizos</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Aesthetics</t>
+  </si>
+  <si>
+    <t>Mecanicas principales</t>
+  </si>
+  <si>
+    <t>Caminar</t>
+  </si>
+  <si>
+    <t>Correr</t>
+  </si>
+  <si>
+    <t>Saltar</t>
+  </si>
+  <si>
+    <t>Hacer un dash</t>
+  </si>
+  <si>
+    <t>Escalar paredes</t>
+  </si>
+  <si>
+    <t>Subir o bajar escaleras</t>
+  </si>
+  <si>
+    <t>Ataque melee</t>
+  </si>
+  <si>
+    <t>Ataque a distancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hechizos </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,14 +433,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA13C14-2958-44C5-A601-CE6DF7D27E3D}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>